--- a/data/en/outcome_table.xlsx
+++ b/data/en/outcome_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/83581mhe_eur_nl/Documents/Documents/C4PO/kansenkloof/231018_Output8151mhks_202310_KCO_gradients/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/83581mhe_eur_nl/Documents/Documents/C4PO/kansenkloof/kenniscentrumongelijkheid-update_mirthe/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AFD52145-B071-4837-B577-63CE2711F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2CCADE-553D-4758-A058-C8207A2D10FE}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{AFD52145-B071-4837-B577-63CE2711F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC77E73B-1E3C-4B0D-92A6-6B71310E7649}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="1" r:id="rId1"/>
     <sheet name="area" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
   <si>
     <t>prefix_postfix</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Health and Wellbeing</t>
   </si>
   <si>
-    <t>refers to the percentage of newborns with a birth weight in the bottom 10 percent of children with the same sex and gestational age according to the Perined birth weight curves between 2008 and 2016 (live births).</t>
-  </si>
-  <si>
     <t>Newborns</t>
   </si>
   <si>
@@ -70,18 +67,12 @@
     <t>Preterm Birth</t>
   </si>
   <si>
-    <t>refers to the percentage of newborns born before 37 weeks of pregnancy between 2008 and 2016 (live births).</t>
-  </si>
-  <si>
     <t>c00_infant_mortality</t>
   </si>
   <si>
     <t xml:space="preserve">Stillbirth and Infant Mortality </t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of newborns who die before the first birthday, including deaths before and during delivery between 2008 and 2016 (all births). </t>
-  </si>
-  <si>
     <t>costs</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Health Care Costs</t>
   </si>
   <si>
-    <t>refers to average annual health care costs, covered by the Health Insurance Act, of pupils between 2014 and 2018.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pupils in the Final Grade of Primary School </t>
   </si>
   <si>
@@ -103,69 +91,42 @@
     <t>Child Protective Services</t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a child protection order in the year when started the final grade of primary school between 2015 and 2018.</t>
-  </si>
-  <si>
     <t>c16_youth_health_costs</t>
   </si>
   <si>
-    <t>refers to average annual health care costs, covered by the Health Insurance Act, of 16-year-olds between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>16-Year-Olds</t>
   </si>
   <si>
     <t>c16_youth_protection</t>
   </si>
   <si>
-    <t>refers to the percentage of 16-year-olds with a child protection order in the calendar when they turned 16 between 2015 and 2018.</t>
-  </si>
-  <si>
     <t>c30_basic_mhc</t>
   </si>
   <si>
     <t>Uses Mental Health Care (Basic)</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties who in 2018 used mental health care (basic), covered by the Health Insurance Act.</t>
-  </si>
-  <si>
-    <t>People in Their Thirties</t>
-  </si>
-  <si>
     <t>c30_specialist_mhc</t>
   </si>
   <si>
     <t>Uses Mental Health Care (Specialist)</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties who in 2018 used mental health care (specialist), covered by the Health Insurance Act.</t>
-  </si>
-  <si>
     <t>c30_pharma</t>
   </si>
   <si>
     <t>Uses Medication</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties who in 2018 used medication, covered by the Health Insurance Act.</t>
-  </si>
-  <si>
     <t>c30_hospital</t>
   </si>
   <si>
     <t>Uses Hospital Care</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties who in 2018 used hospital care, covered by the Health Insurance Act.</t>
-  </si>
-  <si>
     <t>c30_total_health_costs</t>
   </si>
   <si>
-    <t>refers to average annual health care costs, covered by the Health Insurance Act, of people in their thirties in 2018.</t>
-  </si>
-  <si>
     <t>c11_vmbo_gl_test</t>
   </si>
   <si>
@@ -175,135 +136,90 @@
     <t>Education</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with at least a moderate test score between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_havo_test</t>
   </si>
   <si>
     <t>Test Score at Least High</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with at least a high test score between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_vwo_test</t>
   </si>
   <si>
     <t xml:space="preserve">Test Score Very High </t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with a very high test score between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_math</t>
   </si>
   <si>
     <t>Test Score Mathematics Target Level</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for mathematics between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_reading</t>
   </si>
   <si>
     <t>Test Score Reading Comprehension Target Level</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for reading comprehension between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_language</t>
   </si>
   <si>
     <t>Test Score Grammar and Writing Target Level</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for grammar and writing between 2015 and 2019. </t>
-  </si>
-  <si>
     <t>c11_vmbo_gl_final</t>
   </si>
   <si>
     <t xml:space="preserve">Track Recommendation at Least Moderate Ability </t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a moderate-, high- or very high-ability track recommedation between 2015 and 2018.</t>
-  </si>
-  <si>
     <t>c11_havo_final</t>
   </si>
   <si>
     <t>Track Recommendation at Least High Ability</t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a high- or very high-ability track recommedation between 2015 and 2019.</t>
-  </si>
-  <si>
     <t>c11_vwo_final</t>
   </si>
   <si>
     <t xml:space="preserve">Track Recommendation Very High Ability </t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a very high-ability track recommedation between 2015 and 2019.</t>
-  </si>
-  <si>
     <t>c11_over_advice</t>
   </si>
   <si>
     <t>Track Recommendation Above Test-Score Track</t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a track recommedation above the test-score track between 2015 and 2019.</t>
-  </si>
-  <si>
     <t>c11_under_advice</t>
   </si>
   <si>
     <t>Track Recommendation Below Test-Score Track</t>
   </si>
   <si>
-    <t>refers to the percentage of pupils in the final grade of primary school with a track recommedation below the test-score track between 2015 and 2019.</t>
-  </si>
-  <si>
     <t>c16_vmbo_gl</t>
   </si>
   <si>
     <t>Moderate-Ability Track or Higher</t>
   </si>
   <si>
-    <t>refers to the percentage of 16-year-olds who enrolled in a moderate-, high-, or very high-ability track between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c16_havo</t>
   </si>
   <si>
     <t>High-Ability Track or Higher</t>
   </si>
   <si>
-    <t>refers to the percentage of 16-year-olds who enrolled in a high- or very high-ability track between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c16_vwo</t>
   </si>
   <si>
     <t>Very High-Ability Track</t>
   </si>
   <si>
-    <t>refers to the percentage of 16-year-olds who enrolled in a very high-ability track between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c21_high_school_attained</t>
   </si>
   <si>
     <t>Basic Educational Degree Attainment</t>
   </si>
   <si>
-    <t>refers to the percentage of 21-year-olds with a basic educational degree between 2015 and 2020.</t>
-  </si>
-  <si>
     <t>21-Year-Olds</t>
   </si>
   <si>
@@ -313,36 +229,24 @@
     <t>Higher Professional Education or University Enrollment</t>
   </si>
   <si>
-    <t>refers to the percentage of 21-year-olds who enrolled in higher professional education or university between 2015 and 2020</t>
-  </si>
-  <si>
     <t>c21_uni_followed</t>
   </si>
   <si>
     <t>University Enrollment</t>
   </si>
   <si>
-    <t>refers to the percentage of 21-year-olds who enrolled in university between 2015 and 2020.</t>
-  </si>
-  <si>
     <t>c30_hbo_attained</t>
   </si>
   <si>
     <t>Higher Professional Education or University Attainment</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with a higher professional education or university degree between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c30_wo_attained</t>
   </si>
   <si>
     <t>University Attainment</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with a university degree between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>continuous</t>
   </si>
   <si>
@@ -355,24 +259,15 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>refers to the average home size per household member of pupils in the final grade of primary school between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c16_living_space_pp</t>
   </si>
   <si>
-    <t>refers to the average home size per household member of 16-year-olds between 2014 and 2018.</t>
-  </si>
-  <si>
     <t>c30_home_owner</t>
   </si>
   <si>
     <t>Home Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">refers to the percentage of people in their thirties who owned a home on January 1, 2018. </t>
-  </si>
-  <si>
     <t>c30_income</t>
   </si>
   <si>
@@ -382,81 +277,54 @@
     <t>Work and Income</t>
   </si>
   <si>
-    <t>refers to the average annual gross personal income over 2017 and 2018 (2018 price level). </t>
-  </si>
-  <si>
     <t>c30_employed</t>
   </si>
   <si>
     <t>Working</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with wage payments as their primary income source in December 2018.</t>
-  </si>
-  <si>
     <t>c30_hrs_work_pw</t>
   </si>
   <si>
     <t>Weekly Working Hours (Wage Earners)</t>
   </si>
   <si>
-    <t>refers to the average weekly working hours of wage earners in their thirties in 2017 and 2018.</t>
-  </si>
-  <si>
     <t>c30_permanent_contract</t>
   </si>
   <si>
     <t>Has Indefinite-Term Employment Contract (Wage Earners)</t>
   </si>
   <si>
-    <t>refers to the percentage of week earners in their thirties with an indefinite-term employment contract.</t>
-  </si>
-  <si>
     <t>c30_hourly_wage</t>
   </si>
   <si>
     <t>Hourly Wage (Wage Earners)</t>
   </si>
   <si>
-    <t>refers to the average hourly wage of wage earners in their thirties (2018 price level).</t>
-  </si>
-  <si>
     <t>c30_disability</t>
   </si>
   <si>
     <t>Receives Disability or Sickness Insurance Benefits</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with disability or sickness insurance benefits as their primary income source in December 2018.</t>
-  </si>
-  <si>
     <t>c30_social_assistance</t>
   </si>
   <si>
     <t>Receives Basic Social Benefits</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with basic social benefits as their primary income source in December 2018.</t>
-  </si>
-  <si>
     <t>c30_wealth</t>
   </si>
   <si>
     <t>Household Wealth</t>
   </si>
   <si>
-    <t>refers to the average household wealth of people in their thirties in 2018.</t>
-  </si>
-  <si>
     <t>c30_debt</t>
   </si>
   <si>
     <t>Household Debt</t>
   </si>
   <si>
-    <t>refers to the average household debt of people in their thirties in 2018.</t>
-  </si>
-  <si>
     <t>geografie</t>
   </si>
   <si>
@@ -664,27 +532,15 @@
     <t>c30_hourly_wage_max_11</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with an average hourly wage of 11 euro's or higher (2018 price level).</t>
-  </si>
-  <si>
     <t>c30_hourly_wage_max_14</t>
   </si>
   <si>
-    <t>refers to the percentage of people in their thirties with an average hourly wage of 14 euro's or higher (2018 price level).</t>
-  </si>
-  <si>
     <t>c30_wealth_no_home</t>
   </si>
   <si>
-    <t>refers to the average household wealth excluding the value of their home of people in their thirties in 2018.</t>
-  </si>
-  <si>
     <t>c30_home_wealth</t>
   </si>
   <si>
-    <t>refers to the average value of their home of people in their thirties in 2018.</t>
-  </si>
-  <si>
     <t>c30_sum_gifts</t>
   </si>
   <si>
@@ -700,13 +556,187 @@
     <t>c30_living_space_pp</t>
   </si>
   <si>
-    <t>c30_income_perc</t>
-  </si>
-  <si>
-    <t>c30_household_income_perc</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Hourly wage less than 11</t>
+  </si>
+  <si>
+    <t>Hourly wage less than 14</t>
+  </si>
+  <si>
+    <t>Wealth excluding home and mortgage debt</t>
+  </si>
+  <si>
+    <t>Homeownership value</t>
+  </si>
+  <si>
+    <t>Value gift by parents</t>
+  </si>
+  <si>
+    <t>Gift from parents</t>
+  </si>
+  <si>
+    <t>Young mothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household income </t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds employed with an average hourly wage of 11 euros or higher (2020 price level) in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds employed with an average hourly wage of 14 euros or higher (2020 price level) in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average total wealth without home and mortgage debt of households to which 35-year-olds belonged in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average value of the home minus mortgage debt of households to which 35-year-olds belonged in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average total financial gifts received from parents between ages 26 and 35 from 35-year-olds.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds that between the ages of 26 and 35 received a financial gift from their parents.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-old women who became mothers before they turned 26</t>
+  </si>
+  <si>
+    <t>refers to the average gross annual household income in the years when 35-year-olds turned 34 and 35.</t>
+  </si>
+  <si>
+    <t>refers to the average home size per household member of 35-year-olds.</t>
+  </si>
+  <si>
+    <t>35-Year-Olds</t>
+  </si>
+  <si>
+    <t>refers to the percentage of newborns with a birth weight in the bottom 10 percent of children with the same sex and gestational age according to the Perined birth weight curves (live births).</t>
+  </si>
+  <si>
+    <t>refers to the percentage of newborns born before 37 weeks of pregnancy (live births).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of newborns who die before the first birthday, including deaths before and during delivery (all births). </t>
+  </si>
+  <si>
+    <t>refers to average annual health care costs, covered by the Health Insurance Act, of pupils.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a child protection order in the year when started the final grade of primary school.</t>
+  </si>
+  <si>
+    <t>refers to average annual health care costs, covered by the Health Insurance Act, of 16-year-olds.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 16-year-olds with a child protection order in the calendar when they turned 16.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds who used mental health care (basic), covered by the Health Insurance Act, in the year they turned 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of 35-year-olds who used mental health care (specialist), covered by the Health Insurance Act, in the year they turned 35. </t>
+  </si>
+  <si>
+    <t>refers to the percentage 35-year-olds who used medication, covered by the Health Insurance Act, in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds who used hospital care, covered by the Health Insurance Act, in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to average annual health care costs covered by the Health Insurance Act, of 35-year-olds in the year they turned 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with at least a moderate test score. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with at least a high test score between. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school with a very high test score. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for mathematics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for reading comprehension. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of pupils in the final grade of primary school who meet the target level for grammar and writing. </t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a moderate-, high- or very high-ability track recommedation.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a high- or very high-ability track recommedation.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a very high-ability track recommedation.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a track recommedation above the test-score track.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of pupils in the final grade of primary school with a track recommedation below the test-score track.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 16-year-olds who enrolled in a moderate-, high-, or very high-ability track.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 16-year-olds who enrolled in a high- or very high-ability track.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 16-year-olds who enrolled in a very high-ability track.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 21-year-olds with a basic educational degree.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 21-year-olds who enrolled in higher professional education or university.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 21-year-olds who enrolled in university.</t>
+  </si>
+  <si>
+    <t>refers to the average home size per household member of pupils in the final grade of primary school.</t>
+  </si>
+  <si>
+    <t>refers to the average home size per household member of 16-year-olds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to the percentage of 35-year-olds who owned a home. </t>
+  </si>
+  <si>
+    <t>refers to the average annual gross personal income of 35-year-old in the years turned 34 and 35 years old. </t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds with a higher professional education or university degree.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds with a university degree.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds with wage payments as their primary income source in December of the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average weekly working hours of 35-year-old wage earners in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-old wage earners with an indefinite-term employment contract in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average hourly wage (2020 price level) of 35-year-olds in employment, calculated by dividing the basic wage in the year they turned 35 by the number of basic hours worked.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds with disability or sickness insurance benefits as their primary income source in December of the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the percentage of 35-year-olds with basic social benefits as their primary income source in December of the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average household wealth of 35-year-olds in the year they turned 35.</t>
+  </si>
+  <si>
+    <t>refers to the average household debt of 35-year-olds in the year they turned 35.</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="128.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1229,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1240,19 +1270,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1260,39 +1290,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1300,39 +1330,39 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1340,19 +1370,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1360,19 +1390,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1380,19 +1410,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1400,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,39 +1450,39 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1460,19 +1490,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1480,19 +1510,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1500,19 +1530,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1520,19 +1550,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1540,19 +1570,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1560,39 +1590,39 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1600,19 +1630,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,19 +1650,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1640,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,19 +1690,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1680,19 +1710,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1700,19 +1730,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1720,19 +1750,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,19 +1770,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,19 +1790,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,19 +1810,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1800,19 +1830,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1820,59 +1850,59 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,39 +1910,39 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1920,39 +1950,39 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,59 +1990,59 @@
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,59 +2050,59 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,19 +2110,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" t="s">
-        <v>34</v>
+        <v>184</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,79 +2130,79 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" t="s">
-        <v>34</v>
+        <v>185</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>226</v>
+        <v>180</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,19 +2210,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>226</v>
+        <v>181</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,103 +2230,63 @@
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>226</v>
+        <v>183</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>226</v>
+        <v>175</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" t="s">
-        <v>34</v>
+        <v>192</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="3"/>
+      <c r="F54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2308,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2320,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2328,498 +2318,498 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/en/outcome_table.xlsx
+++ b/data/en/outcome_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Library/CloudStorage/OneDrive-ErasmusUniversityRotterdam/Kansenlab/kenniscentrumongelijkheid-main/data/en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0446FB07-7C28-524E-B979-A9EDF07D8353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5D860-987B-A548-8ECF-F6A8955CD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>refers to average annual total care costs, covered by the Health Insurance Act, of 16-year-olds in the year that they turned 16.</t>
   </si>
   <si>
-    <t>c21_young_parent</t>
+    <t>c21_young_parents</t>
   </si>
   <si>
     <t>Young Parenthood</t>
@@ -144,15 +144,18 @@
     <t>refers to the percentage of 21-year-old parents who became a parent before they turned 20</t>
   </si>
   <si>
+    <t>21-Year-Olds</t>
+  </si>
+  <si>
+    <t>c30_total_health_costs</t>
+  </si>
+  <si>
+    <t>refers to average total health care costs covered by the Health Insurance Act, of 35-year-olds in the year that they turned 35.</t>
+  </si>
+  <si>
     <t>35-Year-Olds</t>
   </si>
   <si>
-    <t>c30_total_health_costs</t>
-  </si>
-  <si>
-    <t>refers to average total health care costs covered by the Health Insurance Act, of 35-year-olds in the year that they turned 35.</t>
-  </si>
-  <si>
     <t>c30_hospital</t>
   </si>
   <si>
@@ -327,9 +330,6 @@
     <t>refers to the percentage of 21-year-olds with a high school degree (havo, vwo, or mbo level 2 of higher).</t>
   </si>
   <si>
-    <t>21-Year-Olds</t>
-  </si>
-  <si>
     <t>c21_hbo_followed</t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>years</t>
   </si>
   <si>
-    <t>c35_age_left_parents</t>
+    <t>c30_age_left_parents</t>
   </si>
   <si>
     <t>Age left parental home</t>
@@ -561,7 +561,7 @@
     <t>refers to the average home size per household member of 35-year-olds.</t>
   </si>
   <si>
-    <t>c30_home_owner</t>
+    <t>c30_homeowner</t>
   </si>
   <si>
     <t>Home Owner</t>
@@ -819,7 +819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +838,12 @@
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -851,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -878,6 +884,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="128.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1473,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1481,19 +1488,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1501,19 +1508,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1521,19 +1528,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,19 +1548,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1561,16 +1568,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
@@ -1581,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>21</v>
@@ -1601,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
@@ -1621,16 +1628,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
@@ -1641,16 +1648,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>21</v>
@@ -1661,16 +1668,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>21</v>
@@ -1681,16 +1688,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>21</v>
@@ -1701,16 +1708,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>21</v>
@@ -1721,16 +1728,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>21</v>
@@ -1741,16 +1748,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>21</v>
@@ -1761,16 +1768,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>21</v>
@@ -1781,16 +1788,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>28</v>
@@ -1801,16 +1808,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>28</v>
@@ -1821,16 +1828,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>28</v>
@@ -1841,19 +1848,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1867,13 +1874,13 @@
         <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1887,13 +1894,13 @@
         <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1907,13 +1914,13 @@
         <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,390 +1934,390 @@
         <v>106</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>118</v>
+      <c r="A34" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>159</v>
+        <v>112</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>165</v>
+      <c r="B36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>166</v>
+        <v>110</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>169</v>
+        <v>118</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>172</v>
+        <v>110</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>174</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>175</v>
+        <v>110</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>22</v>
+      <c r="A40" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>111</v>
+      <c r="E40" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>113</v>
+        <v>131</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>116</v>
+      <c r="B42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>124</v>
+      <c r="E44" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>125</v>
+      <c r="B45" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>127</v>
+      <c r="E45" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>130</v>
+      <c r="E46" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>133</v>
+      <c r="E47" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>135</v>
+        <v>152</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>136</v>
+      <c r="E48" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>139</v>
+      <c r="E49" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>110</v>
+        <v>162</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>34</v>
+        <v>163</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>34</v>
@@ -2318,62 +2325,62 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>110</v>
+        <v>171</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/en/outcome_table.xlsx
+++ b/data/en/outcome_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilsonea/Documents/GitHub/kenniscentrumongelijkheid/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5D860-987B-A548-8ECF-F6A8955CD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8286BD-7579-5042-9E93-16A5F948304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outcome" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="243">
   <si>
     <t>prefix_postfix</t>
   </si>
@@ -751,9 +749,6 @@
   </si>
   <si>
     <t>Ouder-Amstel</t>
-  </si>
-  <si>
-    <t>Beemster</t>
   </si>
   <si>
     <t>Landsmeer</t>
@@ -971,9 +966,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1011,7 +1006,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1117,7 +1112,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1259,7 +1254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2401,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2898,7 +2893,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2906,14 +2901,6 @@
         <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" t="s">
         <v>214</v>
       </c>
     </row>
